--- a/Documentacion/Requerimientos Funcionales Contradictorios - react-tmdb-api.xlsx
+++ b/Documentacion/Requerimientos Funcionales Contradictorios - react-tmdb-api.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -91,10 +91,16 @@
     <t>El sistema debe mostrar la duración de cada película</t>
   </si>
   <si>
+    <t>RF011</t>
+  </si>
+  <si>
     <t>El sistema debe de tener un login</t>
   </si>
   <si>
     <t>Pendiente</t>
+  </si>
+  <si>
+    <t>RF12</t>
   </si>
   <si>
     <t>El sistema debe de tener app para android</t>
@@ -771,30 +777,30 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
